--- a/games.xlsx
+++ b/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/305d11ab5e8cebb3/Dokument/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEE2F9D3-FED2-433B-A86F-7FBEBC4978CB}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9905409-E0EE-4443-8D4D-9C01754833A1}"/>
   <bookViews>
     <workbookView xWindow="570" yWindow="1920" windowWidth="25395" windowHeight="11385" xr2:uid="{50675E6A-41E0-4058-9AFA-910DF816D722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="220">
   <si>
     <t>Tiny Tina's Wonderland</t>
   </si>
@@ -1084,8 +1084,8 @@
   <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,65 +4484,221 @@
       <c r="A200" t="s">
         <v>207</v>
       </c>
+      <c r="B200" s="3">
+        <v>6</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>208</v>
       </c>
+      <c r="B201" s="3">
+        <v>4</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>209</v>
       </c>
+      <c r="B202" s="3">
+        <v>6</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>210</v>
       </c>
+      <c r="B203" s="3">
+        <v>5</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>211</v>
       </c>
+      <c r="B204" s="3">
+        <v>5</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>212</v>
       </c>
+      <c r="B205" s="3">
+        <v>5</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>213</v>
       </c>
+      <c r="B206" s="3">
+        <v>7</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>214</v>
       </c>
+      <c r="B207" s="3">
+        <v>4</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D207" s="5">
+        <v>4</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3">
+        <v>5</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3">
+        <v>9</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D209" s="5">
+        <v>9</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3">
+        <v>9</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3">
+        <v>9</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>219</v>
+      </c>
+      <c r="B212" s="3">
+        <v>8</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/games.xlsx
+++ b/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/305d11ab5e8cebb3/Dokument/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9905409-E0EE-4443-8D4D-9C01754833A1}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44BDEC1-B07E-45F5-B0D4-4BF88A009387}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1920" windowWidth="25395" windowHeight="11385" xr2:uid="{50675E6A-41E0-4058-9AFA-910DF816D722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50675E6A-41E0-4058-9AFA-910DF816D722}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="258">
   <si>
     <t>Tiny Tina's Wonderland</t>
   </si>
@@ -696,6 +696,120 @@
   </si>
   <si>
     <t>Mass Effect: Andromeda</t>
+  </si>
+  <si>
+    <t>Age of Mythology: Extended Edition</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Monster Hunter: Rise</t>
+  </si>
+  <si>
+    <t>Desperados III</t>
+  </si>
+  <si>
+    <t>Hard West II</t>
+  </si>
+  <si>
+    <t>Shadowrun Returns</t>
+  </si>
+  <si>
+    <t>Shadowrun: Dragonfall - Directors Cut</t>
+  </si>
+  <si>
+    <t>Shadowrun: Hong Kong - Extended Edition</t>
+  </si>
+  <si>
+    <t>Morbid: The Seven Acolytes</t>
+  </si>
+  <si>
+    <t>Starbound</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Baldur's Gate: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Baldur's Gate II: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Icewind Dale: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Planescape Torment: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Max Payne</t>
+  </si>
+  <si>
+    <t>Max Payne 2</t>
+  </si>
+  <si>
+    <t>Max Payne 3</t>
+  </si>
+  <si>
+    <t>Neverwinter Nights: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Age of Wonders III</t>
+  </si>
+  <si>
+    <t>Age of Wonders Planetfall</t>
+  </si>
+  <si>
+    <t>Grey Goo</t>
+  </si>
+  <si>
+    <t>Ashes of the Singularity: Escalation</t>
+  </si>
+  <si>
+    <t>Shadow Tactics: Blades of the Shogun</t>
+  </si>
+  <si>
+    <t>Mother Russia Bleeds</t>
+  </si>
+  <si>
+    <t>Shadows: Awakening</t>
+  </si>
+  <si>
+    <t>Heroes of Might &amp; Magic III: HD</t>
+  </si>
+  <si>
+    <t>Endless Space</t>
+  </si>
+  <si>
+    <t>Fallout 4</t>
+  </si>
+  <si>
+    <t>Wasteland II</t>
+  </si>
+  <si>
+    <t>Wasteland III</t>
+  </si>
+  <si>
+    <t>Homeworld: Remastered Collection</t>
+  </si>
+  <si>
+    <t>Homeworld: Deserts of Kharak</t>
+  </si>
+  <si>
+    <t>Chaos Reborn</t>
+  </si>
+  <si>
+    <t>Uncharted: Legacy of Thieves Collection</t>
+  </si>
+  <si>
+    <t>Vampire Survivors</t>
+  </si>
+  <si>
+    <t>Mostly</t>
   </si>
 </sst>
 </file>
@@ -1081,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1D5D8-CEB3-41EA-A8C0-718B0A03C335}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,9 +1209,10 @@
     <col min="3" max="3" width="16.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -1113,8 +1228,14 @@
       <c r="E1" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1130,16 +1251,17 @@
       <c r="E2" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>194</v>
@@ -1147,16 +1269,17 @@
       <c r="E3" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>194</v>
@@ -1164,16 +1287,17 @@
       <c r="E4" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>194</v>
@@ -1181,16 +1305,17 @@
       <c r="E5" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>194</v>
@@ -1198,16 +1323,17 @@
       <c r="E6" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>194</v>
@@ -1215,10 +1341,11 @@
       <c r="E7" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>9</v>
@@ -1232,16 +1359,17 @@
       <c r="E8" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>194</v>
@@ -1249,16 +1377,17 @@
       <c r="E9" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>194</v>
@@ -1266,10 +1395,11 @@
       <c r="E10" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -1283,16 +1413,17 @@
       <c r="E11" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>194</v>
@@ -1300,10 +1431,11 @@
       <c r="E12" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
@@ -1317,10 +1449,11 @@
       <c r="E13" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -1334,10 +1467,11 @@
       <c r="E14" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3">
         <v>9</v>
@@ -1351,33 +1485,40 @@
       <c r="E15" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="5">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>194</v>
@@ -1385,13 +1526,14 @@
       <c r="E17" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>137</v>
@@ -1402,16 +1544,17 @@
       <c r="E18" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B19" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>194</v>
@@ -1420,32 +1563,38 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>194</v>
@@ -1453,33 +1602,35 @@
       <c r="E21" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>137</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>194</v>
@@ -1487,16 +1638,17 @@
       <c r="E23" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>194</v>
@@ -1504,16 +1656,17 @@
       <c r="E24" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>194</v>
@@ -1521,10 +1674,11 @@
       <c r="E25" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3">
         <v>8</v>
@@ -1538,16 +1692,17 @@
       <c r="E26" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>194</v>
@@ -1555,10 +1710,11 @@
       <c r="E27" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -1572,10 +1728,14 @@
       <c r="E28" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -1589,10 +1749,11 @@
       <c r="E29" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -1606,16 +1767,17 @@
       <c r="E30" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>194</v>
@@ -1623,16 +1785,17 @@
       <c r="E31" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>194</v>
@@ -1640,16 +1803,17 @@
       <c r="E32" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>194</v>
@@ -1657,16 +1821,17 @@
       <c r="E33" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="B34" s="3">
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>194</v>
@@ -1674,16 +1839,17 @@
       <c r="E34" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>194</v>
@@ -1691,33 +1857,35 @@
       <c r="E35" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="B36" s="3">
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>194</v>
+        <v>137</v>
+      </c>
+      <c r="D36" s="5">
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3">
         <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>194</v>
@@ -1725,16 +1893,17 @@
       <c r="E37" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>194</v>
@@ -1742,10 +1911,11 @@
       <c r="E38" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
@@ -1759,16 +1929,17 @@
       <c r="E39" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>194</v>
@@ -1776,10 +1947,11 @@
       <c r="E40" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>8</v>
@@ -1793,16 +1965,17 @@
       <c r="E41" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3">
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>194</v>
@@ -1810,16 +1983,17 @@
       <c r="E42" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3">
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>194</v>
@@ -1827,16 +2001,17 @@
       <c r="E43" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B44" s="3">
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>194</v>
@@ -1844,16 +2019,17 @@
       <c r="E44" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="B45" s="3">
         <v>8</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>194</v>
@@ -1861,10 +2037,14 @@
       <c r="E45" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3">
         <v>8</v>
@@ -1878,16 +2058,17 @@
       <c r="E46" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="B47" s="3">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>194</v>
@@ -1895,16 +2076,17 @@
       <c r="E47" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B48" s="3">
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>194</v>
@@ -1912,10 +2094,11 @@
       <c r="E48" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3">
         <v>8</v>
@@ -1929,16 +2112,17 @@
       <c r="E49" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B50" s="3">
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>194</v>
@@ -1946,16 +2130,17 @@
       <c r="E50" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B51" s="3">
         <v>8</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>194</v>
@@ -1963,16 +2148,17 @@
       <c r="E51" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="B52" s="3">
         <v>8</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>194</v>
@@ -1980,16 +2166,20 @@
       <c r="E52" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B53" s="3">
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>194</v>
@@ -1997,10 +2187,11 @@
       <c r="E53" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3">
         <v>8</v>
@@ -2008,16 +2199,17 @@
       <c r="C54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="5">
-        <v>9</v>
+      <c r="D54" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="B55" s="3">
         <v>8</v>
@@ -2031,10 +2223,11 @@
       <c r="E55" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B56" s="3">
         <v>8</v>
@@ -2048,10 +2241,11 @@
       <c r="E56" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
         <v>8</v>
@@ -2065,13 +2259,14 @@
       <c r="E57" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B58" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>139</v>
@@ -2082,16 +2277,17 @@
       <c r="E58" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B59" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>194</v>
@@ -2099,13 +2295,14 @@
       <c r="E59" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>137</v>
@@ -2116,16 +2313,17 @@
       <c r="E60" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>194</v>
@@ -2133,16 +2331,17 @@
       <c r="E61" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>194</v>
@@ -2150,16 +2349,17 @@
       <c r="E62" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="B63" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>194</v>
@@ -2167,16 +2367,17 @@
       <c r="E63" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="B64" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>194</v>
@@ -2184,16 +2385,17 @@
       <c r="E64" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="B65" s="3">
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>194</v>
@@ -2201,16 +2403,17 @@
       <c r="E65" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="B66" s="3">
         <v>7</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>194</v>
@@ -2218,16 +2421,20 @@
       <c r="E66" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>194</v>
@@ -2235,16 +2442,17 @@
       <c r="E67" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B68" s="3">
         <v>7</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>194</v>
@@ -2252,10 +2460,11 @@
       <c r="E68" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B69" s="3">
         <v>7</v>
@@ -2269,10 +2478,11 @@
       <c r="E69" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B70" s="3">
         <v>7</v>
@@ -2286,16 +2496,17 @@
       <c r="E70" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B71" s="3">
         <v>7</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>194</v>
@@ -2303,10 +2514,11 @@
       <c r="E71" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B72" s="3">
         <v>7</v>
@@ -2320,10 +2532,11 @@
       <c r="E72" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B73" s="3">
         <v>7</v>
@@ -2337,16 +2550,17 @@
       <c r="E73" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="B74" s="3">
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>194</v>
@@ -2354,16 +2568,17 @@
       <c r="E74" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>194</v>
@@ -2371,10 +2586,11 @@
       <c r="E75" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -2388,16 +2604,17 @@
       <c r="E76" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B77" s="3">
         <v>7</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>194</v>
@@ -2405,10 +2622,11 @@
       <c r="E77" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -2422,16 +2640,17 @@
       <c r="E78" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B79" s="3">
         <v>7</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>194</v>
@@ -2439,16 +2658,17 @@
       <c r="E79" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="B80" s="3">
         <v>7</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>194</v>
@@ -2456,10 +2676,14 @@
       <c r="E80" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
@@ -2473,16 +2697,17 @@
       <c r="E81" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B82" s="3">
         <v>7</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>194</v>
@@ -2490,10 +2715,11 @@
       <c r="E82" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B83" s="3">
         <v>7</v>
@@ -2507,10 +2733,11 @@
       <c r="E83" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B84" s="3">
         <v>7</v>
@@ -2524,10 +2751,11 @@
       <c r="E84" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="B85" s="3">
         <v>7</v>
@@ -2541,10 +2769,11 @@
       <c r="E85" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="B86" s="3">
         <v>7</v>
@@ -2558,10 +2787,11 @@
       <c r="E86" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3">
         <v>7</v>
@@ -2575,10 +2805,11 @@
       <c r="E87" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B88" s="3">
         <v>7</v>
@@ -2592,10 +2823,11 @@
       <c r="E88" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="B89" s="3">
         <v>7</v>
@@ -2609,16 +2841,17 @@
       <c r="E89" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="B90" s="3">
         <v>7</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>194</v>
@@ -2626,16 +2859,17 @@
       <c r="E90" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B91" s="3">
         <v>7</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>194</v>
@@ -2643,10 +2877,11 @@
       <c r="E91" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B92" s="3">
         <v>7</v>
@@ -2660,16 +2895,17 @@
       <c r="E92" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B93" s="3">
         <v>7</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>194</v>
@@ -2677,16 +2913,17 @@
       <c r="E93" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B94" s="3">
         <v>7</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>194</v>
@@ -2694,16 +2931,17 @@
       <c r="E94" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="B95" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>194</v>
@@ -2711,16 +2949,17 @@
       <c r="E95" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B96" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>194</v>
@@ -2728,16 +2967,17 @@
       <c r="E96" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B97" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>194</v>
@@ -2745,13 +2985,14 @@
       <c r="E97" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B98" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>138</v>
@@ -2762,13 +3003,14 @@
       <c r="E98" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B99" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>138</v>
@@ -2779,16 +3021,17 @@
       <c r="E99" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="B100" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>194</v>
@@ -2796,13 +3039,14 @@
       <c r="E100" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="B101" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>138</v>
@@ -2813,16 +3057,17 @@
       <c r="E101" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B102" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>194</v>
@@ -2830,13 +3075,14 @@
       <c r="E102" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="B103" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>138</v>
@@ -2847,13 +3093,14 @@
       <c r="E103" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B104" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>137</v>
@@ -2864,16 +3111,17 @@
       <c r="E104" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B105" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>194</v>
@@ -2881,16 +3129,17 @@
       <c r="E105" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B106" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>194</v>
@@ -2898,13 +3147,14 @@
       <c r="E106" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="B107" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>138</v>
@@ -2915,13 +3165,14 @@
       <c r="E107" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B108" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>138</v>
@@ -2932,13 +3183,14 @@
       <c r="E108" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B109" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>138</v>
@@ -2949,13 +3201,14 @@
       <c r="E109" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B110" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>139</v>
@@ -2966,16 +3219,17 @@
       <c r="E110" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B111" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>194</v>
@@ -2983,13 +3237,14 @@
       <c r="E111" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="B112" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>138</v>
@@ -3000,16 +3255,17 @@
       <c r="E112" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B113" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>194</v>
@@ -3017,16 +3273,17 @@
       <c r="E113" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
         <v>6</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>194</v>
@@ -3034,16 +3291,17 @@
       <c r="E114" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="B115" s="3">
         <v>6</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>194</v>
@@ -3051,16 +3309,17 @@
       <c r="E115" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="B116" s="3">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>194</v>
@@ -3068,16 +3327,17 @@
       <c r="E116" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B117" s="3">
         <v>6</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>194</v>
@@ -3085,10 +3345,11 @@
       <c r="E117" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="B118" s="3">
         <v>6</v>
@@ -3102,16 +3363,17 @@
       <c r="E118" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="B119" s="3">
         <v>6</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>194</v>
@@ -3119,16 +3381,17 @@
       <c r="E119" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="B120" s="3">
         <v>6</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>194</v>
@@ -3136,13 +3399,14 @@
       <c r="E120" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B121" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>138</v>
@@ -3153,16 +3417,17 @@
       <c r="E121" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B122" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>194</v>
@@ -3170,16 +3435,17 @@
       <c r="E122" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B123" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>194</v>
@@ -3187,13 +3453,14 @@
       <c r="E123" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B124" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>138</v>
@@ -3204,16 +3471,17 @@
       <c r="E124" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B125" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>194</v>
@@ -3221,13 +3489,14 @@
       <c r="E125" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B126" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>138</v>
@@ -3238,16 +3507,17 @@
       <c r="E126" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B127" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>194</v>
@@ -3255,16 +3525,17 @@
       <c r="E127" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="B128" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>194</v>
@@ -3272,16 +3543,17 @@
       <c r="E128" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="B129" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>194</v>
@@ -3289,13 +3561,17 @@
       <c r="E129" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B130" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>138</v>
@@ -3306,13 +3582,14 @@
       <c r="E130" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B131" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>138</v>
@@ -3323,13 +3600,14 @@
       <c r="E131" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B132" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>137</v>
@@ -3340,13 +3618,14 @@
       <c r="E132" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B133" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>138</v>
@@ -3358,12 +3637,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B134" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>138</v>
@@ -3374,13 +3653,14 @@
       <c r="E134" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="B135" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>138</v>
@@ -3391,16 +3671,17 @@
       <c r="E135" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B136" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>194</v>
@@ -3408,16 +3689,17 @@
       <c r="E136" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="B137" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>194</v>
@@ -3425,13 +3707,14 @@
       <c r="E137" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="B138" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>138</v>
@@ -3442,16 +3725,17 @@
       <c r="E138" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="B139" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>194</v>
@@ -3459,16 +3743,17 @@
       <c r="E139" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B140" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>194</v>
@@ -3476,13 +3761,14 @@
       <c r="E140" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B141" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>138</v>
@@ -3493,13 +3779,14 @@
       <c r="E141" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="B142" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>138</v>
@@ -3510,16 +3797,17 @@
       <c r="E142" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="B143" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>194</v>
@@ -3527,16 +3815,17 @@
       <c r="E143" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B144" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>194</v>
@@ -3544,13 +3833,14 @@
       <c r="E144" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="B145" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>138</v>
@@ -3561,16 +3851,17 @@
       <c r="E145" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B146" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>194</v>
@@ -3578,13 +3869,14 @@
       <c r="E146" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B147" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>138</v>
@@ -3595,16 +3887,17 @@
       <c r="E147" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="B148" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>194</v>
@@ -3612,13 +3905,14 @@
       <c r="E148" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B149" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>138</v>
@@ -3629,13 +3923,14 @@
       <c r="E149" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B150" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>137</v>
@@ -3646,16 +3941,17 @@
       <c r="E150" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="B151" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>194</v>
@@ -3663,16 +3959,17 @@
       <c r="E151" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B152" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>194</v>
@@ -3680,16 +3977,17 @@
       <c r="E152" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="B153" s="3">
         <v>5</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>194</v>
@@ -3697,10 +3995,11 @@
       <c r="E153" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B154" s="3">
         <v>5</v>
@@ -3714,16 +4013,17 @@
       <c r="E154" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B155" s="3">
         <v>5</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>194</v>
@@ -3731,10 +4031,11 @@
       <c r="E155" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B156" s="3">
         <v>5</v>
@@ -3748,10 +4049,11 @@
       <c r="E156" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="B157" s="3">
         <v>5</v>
@@ -3765,10 +4067,11 @@
       <c r="E157" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B158" s="3">
         <v>5</v>
@@ -3782,10 +4085,11 @@
       <c r="E158" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B159" s="3">
         <v>5</v>
@@ -3799,16 +4103,17 @@
       <c r="E159" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="B160" s="3">
         <v>5</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>194</v>
@@ -3817,15 +4122,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B161" s="3">
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>194</v>
@@ -3833,16 +4138,17 @@
       <c r="E161" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="B162" s="3">
         <v>5</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>194</v>
@@ -3850,745 +4156,789 @@
       <c r="E162" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" s="3">
+        <v>5</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>91</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>81</v>
+      </c>
+      <c r="B179" s="3">
+        <v>5</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="3">
+        <v>5</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G186" s="5"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>143</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>67</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G189" s="5"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>148</v>
+      </c>
+      <c r="B191" s="3">
+        <v>5</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>244</v>
+      </c>
+      <c r="B193" s="3">
+        <v>5</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>159</v>
+      </c>
+      <c r="B194" s="3">
+        <v>5</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" s="3">
+        <v>5</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>211</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G196" s="5"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>212</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G198" s="5"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>122</v>
+      </c>
+      <c r="B199" s="3">
+        <v>5</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G199" s="5"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G200" s="5"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" s="3">
+        <v>5</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G201" s="5"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>96</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B202" s="3">
         <v>4</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C202" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="3">
+        <v>4</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G203" s="5"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" s="3">
+        <v>4</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D204" s="5">
+        <v>4</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B205" s="3">
         <v>4</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C205" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B206" s="3">
         <v>4</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>49</v>
-      </c>
-      <c r="B166" s="3">
-        <v>4</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>173</v>
-      </c>
-      <c r="B167" s="3">
-        <v>4</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>167</v>
-      </c>
-      <c r="B168" s="3">
-        <v>4</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>109</v>
-      </c>
-      <c r="B169" s="3">
-        <v>4</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>106</v>
-      </c>
-      <c r="B170" s="3">
-        <v>4</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>72</v>
-      </c>
-      <c r="B171" s="3">
-        <v>4</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>31</v>
-      </c>
-      <c r="B172" s="3">
-        <v>4</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>66</v>
-      </c>
-      <c r="B173" s="3">
-        <v>4</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>105</v>
-      </c>
-      <c r="B174" s="3">
-        <v>4</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>117</v>
-      </c>
-      <c r="B175" s="3">
-        <v>4</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>19</v>
-      </c>
-      <c r="B176" s="3">
-        <v>4</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>79</v>
-      </c>
-      <c r="B177" s="3">
-        <v>4</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>162</v>
-      </c>
-      <c r="B178" s="3">
-        <v>4</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>164</v>
-      </c>
-      <c r="B179" s="3">
-        <v>4</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>205</v>
-      </c>
-      <c r="B180" s="3">
-        <v>4</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D180" s="5">
-        <v>3</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>92</v>
-      </c>
-      <c r="B181" s="3">
-        <v>4</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>51</v>
-      </c>
-      <c r="B182" s="3">
-        <v>4</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>126</v>
-      </c>
-      <c r="B183" s="3">
-        <v>4</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>149</v>
-      </c>
-      <c r="B184" s="3">
-        <v>4</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B185" s="3">
-        <v>4</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>170</v>
-      </c>
-      <c r="B186" s="3">
-        <v>4</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>156</v>
-      </c>
-      <c r="B187" s="3">
-        <v>3</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>118</v>
-      </c>
-      <c r="B188" s="3">
-        <v>3</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>73</v>
-      </c>
-      <c r="B189" s="3">
-        <v>3</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>179</v>
-      </c>
-      <c r="B190" s="3">
-        <v>3</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>180</v>
-      </c>
-      <c r="B191" s="3">
-        <v>3</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>128</v>
-      </c>
-      <c r="B192" s="3">
-        <v>3</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>58</v>
-      </c>
-      <c r="B193" s="3">
-        <v>3</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>187</v>
-      </c>
-      <c r="B194" s="3">
-        <v>3</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>134</v>
-      </c>
-      <c r="B195" s="3">
-        <v>2</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>151</v>
-      </c>
-      <c r="B196" s="3">
-        <v>2</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>119</v>
-      </c>
-      <c r="B197" s="3">
-        <v>2</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>121</v>
-      </c>
-      <c r="B198" s="3">
-        <v>2</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" s="3">
-        <v>7</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>207</v>
-      </c>
-      <c r="B200" s="3">
-        <v>6</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>208</v>
-      </c>
-      <c r="B201" s="3">
-        <v>4</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>209</v>
-      </c>
-      <c r="B202" s="3">
-        <v>6</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>210</v>
-      </c>
-      <c r="B203" s="3">
-        <v>5</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>211</v>
-      </c>
-      <c r="B204" s="3">
-        <v>5</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>212</v>
-      </c>
-      <c r="B205" s="3">
-        <v>5</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>213</v>
-      </c>
-      <c r="B206" s="3">
-        <v>7</v>
-      </c>
       <c r="C206" s="5" t="s">
         <v>138</v>
       </c>
@@ -4598,31 +4948,33 @@
       <c r="E206" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206" s="5"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B207" s="3">
         <v>4</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D207" s="5">
+        <v>138</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>248</v>
+      </c>
+      <c r="B208" s="3">
         <v>4</v>
       </c>
-      <c r="E207" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>215</v>
-      </c>
-      <c r="B208" s="3">
-        <v>5</v>
-      </c>
       <c r="C208" s="5" t="s">
         <v>138</v>
       </c>
@@ -4632,30 +4984,32 @@
       <c r="E208" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G208" s="5"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="B209" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D209" s="5">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209" s="5"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B210" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>138</v>
@@ -4666,16 +5020,17 @@
       <c r="E210" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G210" s="5"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="B211" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>194</v>
@@ -4683,13 +5038,14 @@
       <c r="E211" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G211" s="5"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="B212" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>138</v>
@@ -4700,11 +5056,642 @@
       <c r="E212" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="G212" s="5"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>106</v>
+      </c>
+      <c r="B213" s="3">
+        <v>4</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G213" s="5"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>72</v>
+      </c>
+      <c r="B214" s="3">
+        <v>4</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G214" s="5"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>245</v>
+      </c>
+      <c r="B215" s="3">
+        <v>4</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G215" s="5"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216" s="3">
+        <v>4</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G216" s="5"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>66</v>
+      </c>
+      <c r="B217" s="3">
+        <v>4</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G217" s="5"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>105</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G218" s="5"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>117</v>
+      </c>
+      <c r="B219" s="3">
+        <v>4</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="3">
+        <v>4</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G220" s="5"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>79</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G221" s="5"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G222" s="5"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>164</v>
+      </c>
+      <c r="B223" s="3">
+        <v>4</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G223" s="5"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>205</v>
+      </c>
+      <c r="B224" s="3">
+        <v>4</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D224" s="5">
+        <v>3</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G224" s="5"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>92</v>
+      </c>
+      <c r="B225" s="3">
+        <v>4</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G225" s="5"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B226" s="3">
+        <v>4</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G226" s="5"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227" s="3">
+        <v>4</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G227" s="5"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>149</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G228" s="5"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>150</v>
+      </c>
+      <c r="B229" s="3">
+        <v>4</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>170</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" s="3">
+        <v>3</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" s="3">
+        <v>3</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>73</v>
+      </c>
+      <c r="B233" s="3">
+        <v>3</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>179</v>
+      </c>
+      <c r="B235" s="3">
+        <v>3</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="3">
+        <v>3</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="3">
+        <v>3</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="3">
+        <v>3</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" s="3">
+        <v>3</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>128</v>
+      </c>
+      <c r="B240" s="3">
+        <v>3</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>58</v>
+      </c>
+      <c r="B241" s="3">
+        <v>3</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>187</v>
+      </c>
+      <c r="B242" s="3">
+        <v>3</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3">
+        <v>2</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>134</v>
+      </c>
+      <c r="B244" s="3">
+        <v>2</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>151</v>
+      </c>
+      <c r="B245" s="3">
+        <v>2</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>119</v>
+      </c>
+      <c r="B246" s="3">
+        <v>2</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>121</v>
+      </c>
+      <c r="B247" s="3">
+        <v>2</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G247" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E198">
-    <sortCondition descending="1" ref="B2:B198"/>
-    <sortCondition ref="A2:A198"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G247">
+    <sortCondition descending="1" ref="B2:B247"/>
+    <sortCondition ref="A2:A247"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/games.xlsx
+++ b/games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/305d11ab5e8cebb3/Dokument/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44BDEC1-B07E-45F5-B0D4-4BF88A009387}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{BA9E0D45-2812-4643-82F4-D08F55D0AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B882848E-1CF0-48AF-9759-64945EAC0E4B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50675E6A-41E0-4058-9AFA-910DF816D722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="268">
   <si>
     <t>Tiny Tina's Wonderland</t>
   </si>
@@ -810,6 +810,36 @@
   </si>
   <si>
     <t>Mostly</t>
+  </si>
+  <si>
+    <t>Quantum Break</t>
+  </si>
+  <si>
+    <t>Company of Heroes 2</t>
+  </si>
+  <si>
+    <t>Old World</t>
+  </si>
+  <si>
+    <t>Against the Storm</t>
+  </si>
+  <si>
+    <t>EXAPUNKS</t>
+  </si>
+  <si>
+    <t>Wolcen: Lords of Mayhem</t>
+  </si>
+  <si>
+    <t>Surviving the Abyss</t>
+  </si>
+  <si>
+    <t>Northguard</t>
+  </si>
+  <si>
+    <t>Fashion Police Squad</t>
+  </si>
+  <si>
+    <t>Tortuga</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1195,11 +1225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1D5D8-CEB3-41EA-A8C0-718B0A03C335}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,25 +1636,24 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
@@ -1632,8 +1661,8 @@
       <c r="C23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>194</v>
+      <c r="D23" s="5">
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>194</v>
@@ -1642,7 +1671,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -1660,13 +1689,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>194</v>
@@ -1678,13 +1707,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>194</v>
@@ -1696,13 +1725,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>194</v>
@@ -1714,52 +1743,52 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>194</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>194</v>
@@ -1771,13 +1800,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>194</v>
@@ -1789,7 +1818,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -1807,7 +1836,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -1825,13 +1854,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3">
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>194</v>
@@ -1843,13 +1872,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>194</v>
@@ -1861,7 +1890,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3">
         <v>8</v>
@@ -1869,8 +1898,8 @@
       <c r="C36" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="5">
-        <v>9</v>
+      <c r="D36" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>194</v>
@@ -1879,16 +1908,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="B37" s="3">
         <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>194</v>
+        <v>137</v>
+      </c>
+      <c r="D37" s="5">
+        <v>9</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>194</v>
@@ -1897,13 +1926,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3">
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>194</v>
@@ -1915,13 +1944,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>194</v>
@@ -1933,13 +1962,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B40" s="3">
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>194</v>
@@ -1951,13 +1980,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>8</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>194</v>
@@ -1969,7 +1998,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>8</v>
@@ -1987,13 +2016,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3">
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>194</v>
@@ -2005,13 +2034,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3">
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>194</v>
@@ -2023,46 +2052,46 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="B45" s="3">
         <v>8</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="B46" s="3">
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>194</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3">
         <v>8</v>
@@ -2080,7 +2109,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B48" s="3">
         <v>8</v>
@@ -2098,13 +2127,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B49" s="3">
         <v>8</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>194</v>
@@ -2116,13 +2145,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3">
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>194</v>
@@ -2134,7 +2163,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B51" s="3">
         <v>8</v>
@@ -2152,28 +2181,25 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B52" s="3">
         <v>8</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="B53" s="3">
         <v>8</v>
@@ -2187,17 +2213,20 @@
       <c r="E53" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="F53" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B54" s="3">
         <v>8</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>194</v>
@@ -2209,13 +2238,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B55" s="3">
         <v>8</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>194</v>
@@ -2227,7 +2256,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B56" s="3">
         <v>8</v>
@@ -2245,13 +2274,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="B57" s="3">
         <v>8</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>194</v>
@@ -2263,7 +2292,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>8</v>
@@ -2281,13 +2310,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B59" s="3">
         <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>194</v>
@@ -2299,13 +2328,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B60" s="3">
         <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>194</v>
@@ -2317,7 +2346,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3">
         <v>8</v>
@@ -2335,13 +2364,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B62" s="3">
         <v>8</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>194</v>
@@ -2353,7 +2382,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3">
         <v>8</v>
@@ -2371,13 +2400,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="B64" s="3">
         <v>8</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>194</v>
@@ -2389,10 +2418,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="B65" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>139</v>
@@ -2407,7 +2436,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B66" s="3">
         <v>7</v>
@@ -2421,14 +2450,11 @@
       <c r="E66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
@@ -2442,17 +2468,20 @@
       <c r="E67" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="F67" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B68" s="3">
         <v>7</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>194</v>
@@ -2464,7 +2493,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3">
         <v>7</v>
@@ -2482,13 +2511,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B70" s="3">
         <v>7</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>194</v>
@@ -2500,13 +2529,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3">
         <v>7</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>194</v>
@@ -2518,7 +2547,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="B72" s="3">
         <v>7</v>
@@ -2536,13 +2565,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="B73" s="3">
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>194</v>
@@ -2554,13 +2583,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="B74" s="3">
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>194</v>
@@ -2572,7 +2601,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -2580,17 +2609,19 @@
       <c r="C75" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>194</v>
+      <c r="D75" s="5">
+        <v>9</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -2604,17 +2635,16 @@
       <c r="E76" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3">
         <v>7</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>194</v>
@@ -2626,7 +2656,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -2644,13 +2674,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B79" s="3">
         <v>7</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>194</v>
@@ -2662,34 +2692,31 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="B80" s="3">
         <v>7</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>194</v>
@@ -2701,7 +2728,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="B82" s="3">
         <v>7</v>
@@ -2715,17 +2742,20 @@
       <c r="E82" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="F82" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B83" s="3">
         <v>7</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>194</v>
@@ -2737,13 +2767,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="B84" s="3">
         <v>7</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>194</v>
@@ -2755,13 +2785,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="B85" s="3">
         <v>7</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>194</v>
@@ -2773,7 +2803,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B86" s="3">
         <v>7</v>
@@ -2791,7 +2821,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B87" s="3">
         <v>7</v>
@@ -2809,7 +2839,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B88" s="3">
         <v>7</v>
@@ -2827,7 +2857,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="B89" s="3">
         <v>7</v>
@@ -2841,11 +2871,10 @@
       <c r="E89" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="B90" s="3">
         <v>7</v>
@@ -2859,11 +2888,10 @@
       <c r="E90" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B91" s="3">
         <v>7</v>
@@ -2881,7 +2909,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B92" s="3">
         <v>7</v>
@@ -2899,7 +2927,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="B93" s="3">
         <v>7</v>
@@ -2917,7 +2945,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B94" s="3">
         <v>7</v>
@@ -2935,13 +2963,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="B95" s="3">
         <v>7</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>194</v>
@@ -2953,7 +2981,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B96" s="3">
         <v>7</v>
@@ -2971,13 +2999,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="B97" s="3">
         <v>7</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>194</v>
@@ -2985,11 +3013,10 @@
       <c r="E97" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B98" s="3">
         <v>7</v>
@@ -3007,7 +3034,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B99" s="3">
         <v>7</v>
@@ -3025,13 +3052,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="B100" s="3">
         <v>7</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>194</v>
@@ -3043,7 +3070,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B101" s="3">
         <v>7</v>
@@ -3061,13 +3088,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B102" s="3">
         <v>7</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>194</v>
@@ -3079,7 +3106,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="B103" s="3">
         <v>7</v>
@@ -3097,13 +3124,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B104" s="3">
         <v>7</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>194</v>
@@ -3115,13 +3142,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B105" s="3">
         <v>7</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>194</v>
@@ -3129,17 +3156,16 @@
       <c r="E105" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B106" s="3">
         <v>7</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>194</v>
@@ -3151,7 +3177,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B107" s="3">
         <v>7</v>
@@ -3169,7 +3195,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="B108" s="3">
         <v>7</v>
@@ -3187,7 +3213,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B109" s="3">
         <v>7</v>
@@ -3205,13 +3231,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B110" s="3">
         <v>7</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>194</v>
@@ -3223,13 +3249,13 @@
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B111" s="3">
         <v>7</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>194</v>
@@ -3241,13 +3267,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="B112" s="3">
         <v>7</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>194</v>
@@ -3259,13 +3285,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="B113" s="3">
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>194</v>
@@ -3277,10 +3303,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>138</v>
@@ -3295,10 +3321,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B115" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>138</v>
@@ -3309,14 +3335,13 @@
       <c r="E115" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B116" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>138</v>
@@ -3331,13 +3356,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B117" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>194</v>
@@ -3349,10 +3374,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="B118" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>138</v>
@@ -3367,10 +3392,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B119" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>138</v>
@@ -3385,13 +3410,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B120" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>194</v>
@@ -3403,7 +3428,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="B121" s="3">
         <v>6</v>
@@ -3421,7 +3446,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B122" s="3">
         <v>6</v>
@@ -3439,13 +3464,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B123" s="3">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>194</v>
@@ -3457,13 +3482,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B124" s="3">
         <v>6</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>194</v>
@@ -3475,13 +3500,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="B125" s="3">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>194</v>
@@ -3493,7 +3518,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="B126" s="3">
         <v>6</v>
@@ -3511,13 +3536,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B127" s="3">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>194</v>
@@ -3529,13 +3554,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B128" s="3">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>194</v>
@@ -3547,28 +3572,25 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="B129" s="3">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="B130" s="3">
         <v>6</v>
@@ -3582,17 +3604,16 @@
       <c r="E130" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="B131" s="3">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>194</v>
@@ -3604,13 +3625,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="B132" s="3">
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>194</v>
@@ -3622,13 +3643,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="B133" s="3">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>194</v>
@@ -3636,10 +3657,11 @@
       <c r="E133" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B134" s="3">
         <v>6</v>
@@ -3657,13 +3679,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="B135" s="3">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>194</v>
@@ -3675,7 +3697,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B136" s="3">
         <v>6</v>
@@ -3693,25 +3715,28 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B137" s="3">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>194</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B138" s="3">
         <v>6</v>
@@ -3725,17 +3750,16 @@
       <c r="E138" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="B139" s="3">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>194</v>
@@ -3747,13 +3771,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B140" s="3">
         <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>194</v>
@@ -3765,13 +3789,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="B141" s="3">
         <v>6</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>194</v>
@@ -3783,7 +3807,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="B142" s="3">
         <v>6</v>
@@ -3797,17 +3821,16 @@
       <c r="E142" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B143" s="3">
         <v>6</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>194</v>
@@ -3819,13 +3842,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="B144" s="3">
         <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>194</v>
@@ -3837,13 +3860,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="B145" s="3">
         <v>6</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>194</v>
@@ -3855,13 +3878,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="B146" s="3">
         <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>194</v>
@@ -3873,7 +3896,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="B147" s="3">
         <v>6</v>
@@ -3891,13 +3914,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B148" s="3">
         <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>194</v>
@@ -3909,13 +3932,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B149" s="3">
         <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>194</v>
@@ -3927,13 +3950,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B150" s="3">
         <v>6</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>194</v>
@@ -3945,7 +3968,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="B151" s="3">
         <v>6</v>
@@ -3963,7 +3986,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="B152" s="3">
         <v>6</v>
@@ -3981,13 +4004,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="B153" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>194</v>
@@ -3999,10 +4022,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="B154" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>138</v>
@@ -4017,10 +4040,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="B155" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>137</v>
@@ -4035,10 +4058,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="B156" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>138</v>
@@ -4053,13 +4076,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="B157" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>194</v>
@@ -4071,10 +4094,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B158" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>138</v>
@@ -4089,13 +4112,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B159" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>194</v>
@@ -4107,10 +4130,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B160" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>138</v>
@@ -4121,13 +4144,14 @@
       <c r="E160" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="B161" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>138</v>
@@ -4138,17 +4162,16 @@
       <c r="E161" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>194</v>
@@ -4160,7 +4183,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="B163" s="3">
         <v>5</v>
@@ -4178,7 +4201,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B164" s="3">
         <v>5</v>
@@ -4196,13 +4219,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B165" s="3">
         <v>5</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>194</v>
@@ -4214,13 +4237,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B166" s="3">
         <v>5</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>194</v>
@@ -4232,7 +4255,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B167" s="3">
         <v>5</v>
@@ -4250,7 +4273,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="B168" s="3">
         <v>5</v>
@@ -4268,7 +4291,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B169" s="3">
         <v>5</v>
@@ -4286,7 +4309,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="B170" s="3">
         <v>5</v>
@@ -4300,17 +4323,16 @@
       <c r="E170" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G170" s="5"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B171" s="3">
         <v>5</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>194</v>
@@ -4322,7 +4344,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B172" s="3">
         <v>5</v>
@@ -4340,13 +4362,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B173" s="3">
         <v>5</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>194</v>
@@ -4358,7 +4380,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="B174" s="3">
         <v>5</v>
@@ -4376,7 +4398,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B175" s="3">
         <v>5</v>
@@ -4394,13 +4416,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B176" s="3">
         <v>5</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>194</v>
@@ -4412,7 +4434,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="B177" s="3">
         <v>5</v>
@@ -4430,7 +4452,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="B178" s="3">
         <v>5</v>
@@ -4448,7 +4470,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B179" s="3">
         <v>5</v>
@@ -4466,7 +4488,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="B180" s="3">
         <v>5</v>
@@ -4484,13 +4506,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B181" s="3">
         <v>5</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>194</v>
@@ -4502,7 +4524,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B182" s="3">
         <v>5</v>
@@ -4520,13 +4542,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B183" s="3">
         <v>5</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>194</v>
@@ -4538,7 +4560,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B184" s="3">
         <v>5</v>
@@ -4556,7 +4578,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B185" s="3">
         <v>5</v>
@@ -4574,13 +4596,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B186" s="3">
         <v>5</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>194</v>
@@ -4592,13 +4614,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B187" s="3">
         <v>5</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>194</v>
@@ -4610,7 +4632,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B188" s="3">
         <v>5</v>
@@ -4628,13 +4650,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B189" s="3">
         <v>5</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>194</v>
@@ -4646,7 +4668,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B190" s="3">
         <v>5</v>
@@ -4664,7 +4686,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="B191" s="3">
         <v>5</v>
@@ -4682,7 +4704,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B192" s="3">
         <v>5</v>
@@ -4700,7 +4722,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B193" s="3">
         <v>5</v>
@@ -4718,7 +4740,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B194" s="3">
         <v>5</v>
@@ -4736,7 +4758,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B195" s="3">
         <v>5</v>
@@ -4754,13 +4776,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="B196" s="3">
         <v>5</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>194</v>
@@ -4772,13 +4794,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B197" s="3">
         <v>5</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>194</v>
@@ -4790,7 +4812,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B198" s="3">
         <v>5</v>
@@ -4808,7 +4830,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B199" s="3">
         <v>5</v>
@@ -4826,13 +4848,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B200" s="3">
         <v>5</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>194</v>
@@ -4844,13 +4866,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B201" s="3">
         <v>5</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>194</v>
@@ -4862,10 +4884,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B202" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>138</v>
@@ -4880,10 +4902,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B203" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>138</v>
@@ -4898,16 +4920,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="B204" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D204" s="5">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>194</v>
@@ -4916,10 +4938,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B205" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>138</v>
@@ -4934,10 +4956,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B206" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>138</v>
@@ -4952,10 +4974,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B207" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>138</v>
@@ -4970,10 +4992,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="B208" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>138</v>
@@ -4988,13 +5010,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B209" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>194</v>
@@ -5006,13 +5028,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B210" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>194</v>
@@ -5024,10 +5046,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B211" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>137</v>
@@ -5042,7 +5064,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B212" s="3">
         <v>4</v>
@@ -5060,7 +5082,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B213" s="3">
         <v>4</v>
@@ -5078,7 +5100,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="B214" s="3">
         <v>4</v>
@@ -5086,8 +5108,8 @@
       <c r="C214" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D214" s="5" t="s">
-        <v>194</v>
+      <c r="D214" s="5">
+        <v>4</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>194</v>
@@ -5096,13 +5118,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="B215" s="3">
         <v>4</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>194</v>
@@ -5114,7 +5136,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="B216" s="3">
         <v>4</v>
@@ -5132,7 +5154,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B217" s="3">
         <v>4</v>
@@ -5150,7 +5172,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="B218" s="3">
         <v>4</v>
@@ -5168,7 +5190,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B219" s="3">
         <v>4</v>
@@ -5186,13 +5208,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B220" s="3">
         <v>4</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>194</v>
@@ -5204,7 +5226,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B221" s="3">
         <v>4</v>
@@ -5222,13 +5244,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B222" s="3">
         <v>4</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>194</v>
@@ -5240,7 +5262,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B223" s="3">
         <v>4</v>
@@ -5258,7 +5280,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="B224" s="3">
         <v>4</v>
@@ -5266,8 +5288,8 @@
       <c r="C224" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D224" s="5">
-        <v>3</v>
+      <c r="D224" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>194</v>
@@ -5276,13 +5298,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="B225" s="3">
         <v>4</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>194</v>
@@ -5294,7 +5316,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B226" s="3">
         <v>4</v>
@@ -5312,7 +5334,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B227" s="3">
         <v>4</v>
@@ -5330,13 +5352,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B228" s="3">
         <v>4</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>194</v>
@@ -5348,7 +5370,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B229" s="3">
         <v>4</v>
@@ -5366,7 +5388,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="B230" s="3">
         <v>4</v>
@@ -5384,10 +5406,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B231" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>137</v>
@@ -5402,13 +5424,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B232" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>194</v>
@@ -5420,13 +5442,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B233" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>194</v>
@@ -5438,16 +5460,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B234" s="3">
+        <v>4</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D234" s="5">
         <v>3</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>194</v>
@@ -5456,10 +5478,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="B235" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>138</v>
@@ -5474,10 +5496,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="B236" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>138</v>
@@ -5492,10 +5514,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="B237" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>138</v>
@@ -5510,13 +5532,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="B238" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>194</v>
@@ -5528,13 +5550,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B239" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>194</v>
@@ -5546,13 +5568,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="B240" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>194</v>
@@ -5564,13 +5586,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="B241" s="3">
         <v>3</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>194</v>
@@ -5582,7 +5604,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="B242" s="3">
         <v>3</v>
@@ -5600,10 +5622,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="B243" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>137</v>
@@ -5618,13 +5640,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="B244" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>194</v>
@@ -5636,10 +5658,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B245" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>138</v>
@@ -5654,13 +5676,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="B246" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>194</v>
@@ -5672,26 +5694,206 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B247" s="3">
+        <v>3</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>238</v>
+      </c>
+      <c r="B248" s="3">
+        <v>3</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>180</v>
+      </c>
+      <c r="B249" s="3">
+        <v>3</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" s="3">
+        <v>3</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" s="3">
+        <v>3</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>187</v>
+      </c>
+      <c r="B252" s="3">
+        <v>3</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="3">
+        <v>2</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>134</v>
+      </c>
+      <c r="B254" s="3">
+        <v>2</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>151</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G255" s="5"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>119</v>
+      </c>
+      <c r="B256" s="3">
+        <v>2</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>121</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B257" s="3">
         <v>2</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G247" s="5"/>
+      <c r="C257" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G257" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G247">
-    <sortCondition descending="1" ref="B2:B247"/>
-    <sortCondition ref="A2:A247"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G257">
+    <sortCondition descending="1" ref="B2:B257"/>
+    <sortCondition ref="A2:A257"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
